--- a/result_statistics/coad_detection_2.xlsx
+++ b/result_statistics/coad_detection_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>D1I1</t>
   </si>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>GMM</t>
+  </si>
+  <si>
+    <t>AutoEncoder</t>
+  </si>
+  <si>
+    <t>COPOD</t>
+  </si>
+  <si>
+    <t>DeepSVDD</t>
+  </si>
+  <si>
+    <t>IForest</t>
+  </si>
+  <si>
+    <t>KDE</t>
+  </si>
+  <si>
+    <t>OCSVM</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>VAE</t>
   </si>
 </sst>
 </file>
@@ -66,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,6 +106,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +150,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -124,6 +180,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -132,8 +204,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,82 +241,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,73 +257,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,109 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +456,69 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,39 +540,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -494,189 +548,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B3:K27"/>
+  <dimension ref="B3:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1596,31 +1623,356 @@
         <v>0.14</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23">
+        <v>0.67</v>
+      </c>
+      <c r="E23">
+        <v>0.04</v>
+      </c>
+      <c r="F23">
+        <v>0.74</v>
+      </c>
+      <c r="G23">
+        <v>0.07</v>
+      </c>
+      <c r="H23">
+        <v>0.71</v>
+      </c>
+      <c r="I23">
+        <v>0.05</v>
+      </c>
+      <c r="J23">
+        <v>0.71</v>
+      </c>
+      <c r="K23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24">
+        <v>0.64</v>
+      </c>
+      <c r="E24">
+        <v>0.08</v>
+      </c>
+      <c r="F24">
+        <v>0.65</v>
+      </c>
+      <c r="G24">
+        <v>0.09</v>
+      </c>
+      <c r="H24">
+        <v>0.6</v>
+      </c>
+      <c r="I24">
+        <v>0.08</v>
+      </c>
+      <c r="J24">
+        <v>0.63</v>
+      </c>
+      <c r="K24">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25">
+        <v>0.68</v>
+      </c>
+      <c r="E25">
+        <v>0.15</v>
+      </c>
+      <c r="F25">
+        <v>0.58</v>
+      </c>
+      <c r="G25">
+        <v>0.04</v>
+      </c>
+      <c r="H25">
+        <v>0.63</v>
+      </c>
+      <c r="I25">
+        <v>0.14</v>
+      </c>
+      <c r="J25">
+        <v>0.63</v>
+      </c>
+      <c r="K25">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26">
+        <v>0.74</v>
+      </c>
+      <c r="E26">
+        <v>0.24</v>
+      </c>
+      <c r="F26">
+        <v>0.66</v>
+      </c>
+      <c r="G26">
+        <v>0.06</v>
+      </c>
+      <c r="H26">
+        <v>0.75</v>
+      </c>
+      <c r="I26">
+        <v>0.11</v>
+      </c>
+      <c r="J26">
+        <v>0.72</v>
+      </c>
+      <c r="K26">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27">
+        <v>0.61</v>
+      </c>
+      <c r="E27">
+        <v>0.16</v>
+      </c>
+      <c r="F27">
+        <v>0.64</v>
+      </c>
+      <c r="G27">
+        <v>0.22</v>
+      </c>
+      <c r="H27">
+        <v>0.59</v>
+      </c>
+      <c r="I27">
+        <v>0.16</v>
+      </c>
+      <c r="J27">
+        <v>0.61</v>
+      </c>
+      <c r="K27">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28">
+        <v>0.67</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+      <c r="F28">
+        <v>0.64</v>
+      </c>
+      <c r="G28">
+        <v>0.09</v>
+      </c>
+      <c r="H28">
+        <v>0.67</v>
+      </c>
+      <c r="I28">
+        <v>0.17</v>
+      </c>
+      <c r="J28">
+        <v>0.66</v>
+      </c>
+      <c r="K28">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29">
+        <v>0.65</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>0.66</v>
+      </c>
+      <c r="G29">
+        <v>0.13</v>
+      </c>
+      <c r="H29">
+        <v>0.66</v>
+      </c>
+      <c r="I29">
+        <v>0.12</v>
+      </c>
+      <c r="J29">
+        <v>0.66</v>
+      </c>
+      <c r="K29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30">
+        <v>0.7</v>
+      </c>
+      <c r="E30">
+        <v>0.05</v>
+      </c>
+      <c r="F30">
+        <v>0.66</v>
+      </c>
+      <c r="G30">
+        <v>0.16</v>
+      </c>
+      <c r="H30">
+        <v>0.66</v>
+      </c>
+      <c r="I30">
+        <v>0.12</v>
+      </c>
+      <c r="J30">
+        <v>0.67</v>
+      </c>
+      <c r="K30">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31">
+        <v>0.59</v>
+      </c>
+      <c r="E31">
+        <v>0.03</v>
+      </c>
+      <c r="F31">
+        <v>0.65</v>
+      </c>
+      <c r="G31">
+        <v>0.04</v>
+      </c>
+      <c r="H31">
+        <v>0.64</v>
+      </c>
+      <c r="I31">
+        <v>0.03</v>
+      </c>
+      <c r="J31">
+        <v>0.63</v>
+      </c>
+      <c r="K31">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32">
+        <v>0.66</v>
+      </c>
+      <c r="E32">
+        <v>0.04</v>
+      </c>
+      <c r="F32">
+        <v>0.74</v>
+      </c>
+      <c r="G32">
+        <v>0.07</v>
+      </c>
+      <c r="H32">
+        <v>0.72</v>
+      </c>
+      <c r="I32">
+        <v>0.05</v>
+      </c>
+      <c r="J32">
+        <v>0.71</v>
+      </c>
+      <c r="K32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33">
+        <v>0.66</v>
+      </c>
+      <c r="E33">
+        <v>0.04</v>
+      </c>
+      <c r="F33">
+        <v>0.74</v>
+      </c>
+      <c r="G33">
+        <v>0.07</v>
+      </c>
+      <c r="H33">
+        <v>0.71</v>
+      </c>
+      <c r="I33">
+        <v>0.05</v>
+      </c>
+      <c r="J33">
+        <v>0.7</v>
+      </c>
+      <c r="K33">
+        <v>0.05</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
